--- a/system/__prepare/Params.xlsx
+++ b/system/__prepare/Params.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc_enigma\Desktop\ZIF7_struct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc_enigma\MDProjects\MD_ZIF7_TEMPO\system\__prepare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF556B0-1C1C-4E19-966F-F2630C7235D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17D6EC-6C30-4603-8C6E-49F83B7787F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mass" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="bonds" sheetId="1" r:id="rId4"/>
     <sheet name="angles" sheetId="5" r:id="rId5"/>
     <sheet name="dihedrals" sheetId="6" r:id="rId6"/>
+    <sheet name="Лист1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="99">
   <si>
     <t>C1-H1</t>
   </si>
@@ -332,6 +333,12 @@
   </si>
   <si>
     <t>Zn-N-C1</t>
+  </si>
+  <si>
+    <t>RIGID</t>
+  </si>
+  <si>
+    <t>C1-N-Zn-N (6) 3.02±1.48, 2.26±1.42, 0.08±0.05 0.0, 180.0, 0.0 1, 2, 3</t>
   </si>
 </sst>
 </file>
@@ -366,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +383,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -426,6 +439,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -976,7 +990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0849-D9CB-4B2C-996F-66E1D6E76DE2}">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3802,7 +3816,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4342,27 +4356,34 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="A19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="E20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -4373,10 +4394,22 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -4386,11 +4419,27 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3">
+        <v>32.04</v>
+      </c>
+      <c r="C22" s="3">
+        <v>109.42</v>
+      </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <f t="shared" ref="F22:F24" si="2">C22</f>
+        <v>109.42</v>
+      </c>
+      <c r="G22" s="8">
+        <f t="shared" ref="G22:G24" si="3">B22*4.184</f>
+        <v>134.05536000000001</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -4400,11 +4449,27 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="3">
+        <v>49.24</v>
+      </c>
+      <c r="C23" s="3">
+        <v>126.76</v>
+      </c>
       <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <f t="shared" si="2"/>
+        <v>126.76</v>
+      </c>
+      <c r="G23" s="8">
+        <f t="shared" si="3"/>
+        <v>206.02016</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -4414,11 +4479,27 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="3">
+        <v>51.17</v>
+      </c>
+      <c r="C24" s="3">
+        <v>127.94</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="2"/>
+        <v>127.94</v>
+      </c>
+      <c r="G24" s="8">
+        <f t="shared" si="3"/>
+        <v>214.09528</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -4505,9 +4586,11 @@
       <c r="C35" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4518,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B14522C-7766-40AD-89DD-33BB6363CC46}">
   <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59:M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4530,6 +4613,7 @@
     <col min="5" max="5" width="12.21875" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -5739,20 +5823,22 @@
       <c r="S38" s="7"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
+      <c r="A39" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
       <c r="O39" s="7"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
@@ -5760,15 +5846,30 @@
       <c r="S39" s="7"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -5780,188 +5881,651 @@
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B41" s="3"/>
+      <c r="A41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="7">
+        <v>0.74</v>
+      </c>
+      <c r="C41" s="7">
+        <v>180</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7">
+        <v>9</v>
+      </c>
+      <c r="H41" s="7">
+        <f>C41</f>
+        <v>180</v>
+      </c>
+      <c r="I41" s="13">
+        <f>B41*4.184</f>
+        <v>3.0961600000000002</v>
+      </c>
+      <c r="J41" s="7">
+        <f>D41</f>
+        <v>2</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B42" s="3"/>
+      <c r="A42" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3.66</v>
+      </c>
+      <c r="C42" s="7">
+        <v>180</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7">
+        <v>9</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" ref="H42:H56" si="4">C42</f>
+        <v>180</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" ref="I42:I56" si="5">B42*4.184</f>
+        <v>15.313440000000002</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" ref="J42:J56" si="6">D42</f>
+        <v>2</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1.26</v>
+      </c>
+      <c r="C43" s="7">
+        <v>180</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7">
+        <v>9</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="5"/>
+        <v>5.2718400000000001</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="C44" s="7">
+        <v>180</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7">
+        <v>9</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" si="5"/>
+        <v>1.3807200000000002</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="A45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="7">
+        <v>0.45</v>
+      </c>
+      <c r="C45" s="7">
+        <v>180</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7">
+        <v>9</v>
+      </c>
+      <c r="H45" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="5"/>
+        <v>1.8828</v>
+      </c>
+      <c r="J45" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="A46" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="7">
+        <v>0.94</v>
+      </c>
+      <c r="C46" s="7">
+        <v>180</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7">
+        <v>9</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="5"/>
+        <v>3.93296</v>
+      </c>
+      <c r="J46" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="A47" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="7">
+        <v>0.43</v>
+      </c>
+      <c r="C47" s="7">
+        <v>180</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7">
+        <v>9</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="5"/>
+        <v>1.7991200000000001</v>
+      </c>
+      <c r="J47" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A48" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.86</v>
+      </c>
+      <c r="C48" s="7">
+        <v>180</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7">
+        <v>9</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I48" s="13">
+        <f t="shared" si="5"/>
+        <v>3.5982400000000001</v>
+      </c>
+      <c r="J48" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="C49" s="7">
+        <v>180</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7">
+        <v>9</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I49" s="13">
+        <f t="shared" si="5"/>
+        <v>9.0374400000000001</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="7">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C50" s="7">
+        <v>180</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7">
+        <v>9</v>
+      </c>
+      <c r="H50" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I50" s="13">
+        <f t="shared" si="5"/>
+        <v>9.3721600000000009</v>
+      </c>
+      <c r="J50" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="C51" s="7">
+        <v>180</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7">
+        <v>9</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I51" s="13">
+        <f t="shared" si="5"/>
+        <v>3.7656000000000001</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52" s="7">
+        <v>1.05</v>
+      </c>
+      <c r="C52" s="7">
+        <v>180</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7">
+        <v>9</v>
+      </c>
+      <c r="H52" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I52" s="13">
+        <f t="shared" si="5"/>
+        <v>4.3932000000000002</v>
+      </c>
+      <c r="J52" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="7">
+        <v>2.57</v>
+      </c>
+      <c r="C53" s="7">
+        <v>180</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7">
+        <v>9</v>
+      </c>
+      <c r="H53" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I53" s="13">
+        <f t="shared" si="5"/>
+        <v>10.752879999999999</v>
+      </c>
+      <c r="J53" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="C54" s="7">
+        <v>180</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7">
+        <v>9</v>
+      </c>
+      <c r="H54" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I54" s="13">
+        <f t="shared" si="5"/>
+        <v>2.25936</v>
+      </c>
+      <c r="J54" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="7">
+        <v>1.02</v>
+      </c>
+      <c r="C55" s="7">
+        <v>180</v>
+      </c>
+      <c r="D55" s="7">
+        <v>2</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7">
+        <v>9</v>
+      </c>
+      <c r="H55" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I55" s="13">
+        <f t="shared" si="5"/>
+        <v>4.2676800000000004</v>
+      </c>
+      <c r="J55" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="7">
+        <v>3.55</v>
+      </c>
+      <c r="C56" s="7">
+        <v>180</v>
+      </c>
+      <c r="D56" s="7">
+        <v>2</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7">
+        <v>9</v>
+      </c>
+      <c r="H56" s="7">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="I56" s="13">
+        <f t="shared" si="5"/>
+        <v>14.853199999999999</v>
+      </c>
+      <c r="J56" s="7">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B57" s="8"/>
       <c r="C57" s="7"/>
-      <c r="D57" s="3"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="9"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="7"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M58" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N58" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C59" s="3">
+        <v>3.68</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8">
+        <v>180</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" s="11">
+        <v>5</v>
+      </c>
+      <c r="K59" s="13">
+        <f>B59*4.184</f>
+        <v>18.827999999999999</v>
+      </c>
+      <c r="L59" s="13">
+        <f t="shared" ref="L59:M59" si="7">C59*4.184</f>
+        <v>15.397120000000001</v>
+      </c>
+      <c r="M59" s="13">
+        <f t="shared" si="7"/>
+        <v>0.54392000000000007</v>
+      </c>
+      <c r="N59" s="13">
+        <f t="shared" ref="N59:N60" si="8">E59*4.184</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>4.13</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="11">
+        <v>5</v>
+      </c>
+      <c r="K60" s="13">
+        <f>B60*4.184</f>
+        <v>17.279920000000001</v>
+      </c>
+      <c r="L60" s="13">
+        <f t="shared" ref="L60" si="9">C60*4.184</f>
+        <v>11.33864</v>
+      </c>
+      <c r="M60" s="13">
+        <f t="shared" ref="M60" si="10">D60*4.184</f>
+        <v>0.16736000000000001</v>
+      </c>
+      <c r="N60" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="8"/>
@@ -5972,29 +6536,19 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6018,29 +6572,20 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6067,4 +6612,383 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831EEC64-DB53-4CFC-B3E2-6E60C9642616}">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="B25:F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1">
+        <v>0.36</v>
+      </c>
+      <c r="D1" s="1" t="e">
+        <f>A1+B1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2.37</v>
+      </c>
+      <c r="B2">
+        <v>1.29</v>
+      </c>
+      <c r="D2" s="1">
+        <f t="shared" ref="D2:D16" si="0">A2+B2</f>
+        <v>3.66</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.69</v>
+      </c>
+      <c r="B3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.22</v>
+      </c>
+      <c r="B4">
+        <v>0.11</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.26</v>
+      </c>
+      <c r="B5">
+        <v>0.19</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.62</v>
+      </c>
+      <c r="B6">
+        <v>0.32</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.94</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.22</v>
+      </c>
+      <c r="B7">
+        <v>0.21</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.8600000000000001</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1.06</v>
+      </c>
+      <c r="B9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.16</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0.49</v>
+      </c>
+      <c r="B11">
+        <v>0.41</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.59</v>
+      </c>
+      <c r="B12">
+        <v>0.46</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.05</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1.24</v>
+      </c>
+      <c r="B13">
+        <v>1.33</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5700000000000003</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0.22</v>
+      </c>
+      <c r="B14">
+        <v>0.32</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="B15">
+        <v>0.44</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B16">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>3.55</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3.02</v>
+      </c>
+      <c r="B21">
+        <v>1.48</v>
+      </c>
+      <c r="C21">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3.39</v>
+      </c>
+      <c r="B22">
+        <v>0.74</v>
+      </c>
+      <c r="C22">
+        <v>1.92</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>A21+B21</f>
+        <v>4.5</v>
+      </c>
+      <c r="D25">
+        <f>C21+D21</f>
+        <v>3.6799999999999997</v>
+      </c>
+      <c r="F25">
+        <f>E21+F21</f>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>A22+B22</f>
+        <v>4.13</v>
+      </c>
+      <c r="D26">
+        <f>C22+D22</f>
+        <v>2.71</v>
+      </c>
+      <c r="F26">
+        <f>E22+F22</f>
+        <v>0.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>